--- a/daily_ask/day2_answer.xlsx
+++ b/daily_ask/day2_answer.xlsx
@@ -10,7 +10,7 @@
     <sheet name="day2_answer1" sheetId="10" r:id="rId1"/>
     <sheet name="day2_answer2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -509,6 +509,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -517,18 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -802,7 +802,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -826,13 +826,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -858,10 +858,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="10"/>
       <c r="E3" s="3" t="s">
         <v>6</v>
       </c>
@@ -951,10 +951,10 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="13"/>
+      <c r="C8" s="10"/>
       <c r="E8" s="3" t="s">
         <v>68</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="11" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="1">
@@ -1015,10 +1015,10 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="13"/>
+      <c r="C12" s="10"/>
       <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
@@ -1063,6 +1063,12 @@
       <c r="B15" s="1" t="s">
         <v>56</v>
       </c>
+      <c r="C15" s="1">
+        <v>85</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>42</v>
       </c>
@@ -1072,10 +1078,10 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="13"/>
+      <c r="C16" s="10"/>
       <c r="E16" s="3" t="s">
         <v>19</v>
       </c>
@@ -1087,6 +1093,12 @@
       </c>
       <c r="B17" s="1" t="s">
         <v>58</v>
+      </c>
+      <c r="C17" s="1">
+        <v>85</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -1129,17 +1141,17 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="10"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
